--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/31.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/31.xlsx
@@ -479,13 +479,13 @@
         <v>-21.12691049084888</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.958895348495298</v>
+        <v>-8.804340713448722</v>
       </c>
       <c r="F2" t="n">
-        <v>6.126645139369355</v>
+        <v>6.480818115843729</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.89383579454623</v>
+        <v>-16.092629320895</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-20.2762111815775</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.19040653964554</v>
+        <v>-9.003671024214002</v>
       </c>
       <c r="F3" t="n">
-        <v>6.062728516896049</v>
+        <v>6.424966351920926</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.40216745362805</v>
+        <v>-15.60111808761092</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-19.08265315818128</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.252398593601113</v>
+        <v>-9.041442317912381</v>
       </c>
       <c r="F4" t="n">
-        <v>6.166210078557052</v>
+        <v>6.518628686450634</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.6179516057115</v>
+        <v>-14.78152683741602</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.66847730522299</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.18405995612118</v>
+        <v>-10.00857072883069</v>
       </c>
       <c r="F5" t="n">
-        <v>6.248351186586041</v>
+        <v>6.604409454669623</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.61004067144122</v>
+        <v>-13.6972615929728</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.06513619838299</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.81311892306044</v>
+        <v>-10.63562657343516</v>
       </c>
       <c r="F6" t="n">
-        <v>6.372701878976755</v>
+        <v>6.745335002457963</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.89349893691355</v>
+        <v>-12.96786321705455</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-14.358218342645</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.67092660525033</v>
+        <v>-11.51832272332717</v>
       </c>
       <c r="F7" t="n">
-        <v>6.686105424401994</v>
+        <v>7.065913129840467</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.52290502932177</v>
+        <v>-11.52405715197185</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.61694298541283</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.49062259386796</v>
+        <v>-12.33938031144034</v>
       </c>
       <c r="F8" t="n">
-        <v>6.992543864715434</v>
+        <v>7.384501227191029</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.74266924146911</v>
+        <v>-10.71154883761433</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.90759964896929</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.24957029729997</v>
+        <v>-13.12037545285782</v>
       </c>
       <c r="F9" t="n">
-        <v>7.031035235070108</v>
+        <v>7.427967672625559</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.560093894987359</v>
+        <v>-9.440417154711142</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.293290801978527</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.30809607435637</v>
+        <v>-14.18354899742303</v>
       </c>
       <c r="F10" t="n">
-        <v>7.220349934161468</v>
+        <v>7.590469335497064</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.873114580276308</v>
+        <v>-8.725250111981854</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.806491574435165</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.18085516639151</v>
+        <v>-15.05811482725033</v>
       </c>
       <c r="F11" t="n">
-        <v>7.458394184429731</v>
+        <v>7.838542289742089</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.042800734054042</v>
+        <v>-7.82912125937423</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.489930330713652</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.45642513995804</v>
+        <v>-16.37745236921675</v>
       </c>
       <c r="F12" t="n">
-        <v>7.375546092047289</v>
+        <v>7.739381188018856</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.613111354788592</v>
+        <v>-7.388447438024572</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.343444816915408</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.43229920917462</v>
+        <v>-17.39523489982969</v>
       </c>
       <c r="F13" t="n">
-        <v>7.313069622886571</v>
+        <v>7.687352376525837</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.390921883261659</v>
+        <v>-7.203413921962459</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.383933029401442</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.86322244826107</v>
+        <v>-18.85278788289621</v>
       </c>
       <c r="F14" t="n">
-        <v>7.283166803196069</v>
+        <v>7.625504337901522</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.46919757859846</v>
+        <v>-6.236285511044153</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.589873435799452</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.9659085628026</v>
+        <v>-19.98302020261674</v>
       </c>
       <c r="F15" t="n">
-        <v>7.313279099732039</v>
+        <v>7.658758787119507</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.019568622105062</v>
+        <v>-5.787756307989461</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.944809755687879</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.92107060892357</v>
+        <v>-20.94711119927577</v>
       </c>
       <c r="F16" t="n">
-        <v>7.24085248041161</v>
+        <v>7.559728608424691</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.401507189552857</v>
+        <v>-5.163161816319235</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.416424440427911</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.01645121847942</v>
+        <v>-22.07863965697763</v>
       </c>
       <c r="F17" t="n">
-        <v>7.567845836186561</v>
+        <v>7.899447682561799</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.517819207998752</v>
+        <v>-5.320845511744984</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.973034423942891</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.88448398918871</v>
+        <v>-22.95870425399845</v>
       </c>
       <c r="F18" t="n">
-        <v>8.00193422920683</v>
+        <v>8.351917668771852</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.912719155259857</v>
+        <v>-4.713742336671304</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.588460299664503</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.53789463941357</v>
+        <v>-23.59802758636562</v>
       </c>
       <c r="F19" t="n">
-        <v>8.292269137024947</v>
+        <v>8.642645345675222</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.112085559579782</v>
+        <v>-3.892475271712669</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.23564079963171</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.41782831340598</v>
+        <v>-24.50468265045799</v>
       </c>
       <c r="F20" t="n">
-        <v>8.498158691513932</v>
+        <v>8.862203264330967</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.717234798176166</v>
+        <v>-3.522159485834448</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.9031958051665342</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.52580053494169</v>
+        <v>-24.54427377425137</v>
       </c>
       <c r="F21" t="n">
-        <v>8.321936295264299</v>
+        <v>8.667573090285867</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.734084591933467</v>
+        <v>-3.550635244515202</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.578735289153579</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.22043884681515</v>
+        <v>-25.23067702763738</v>
       </c>
       <c r="F22" t="n">
-        <v>8.747357583803346</v>
+        <v>9.099750007091245</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.175517766847945</v>
+        <v>-4.037760556347304</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.2679622001738842</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.29016845175019</v>
+        <v>-25.28381868487195</v>
       </c>
       <c r="F23" t="n">
-        <v>8.412404107900626</v>
+        <v>8.719601901778887</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.012963734765075</v>
+        <v>-3.906575681873208</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.0253063717696524</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.71527552502103</v>
+        <v>-25.7075772509501</v>
       </c>
       <c r="F24" t="n">
-        <v>8.397976390169044</v>
+        <v>8.703576923100615</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.933336348881697</v>
+        <v>-3.836256923310298</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.2834922698596511</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.75608423297869</v>
+        <v>-25.70452674438798</v>
       </c>
       <c r="F25" t="n">
-        <v>8.562599006100907</v>
+        <v>8.871551168559959</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.782931973835947</v>
+        <v>-3.688876870220987</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.4929880522209679</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.06889862477605</v>
+        <v>-26.02392656451472</v>
       </c>
       <c r="F26" t="n">
-        <v>8.469303256050768</v>
+        <v>8.770269113776367</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.628154769641062</v>
+        <v>-3.541431355617469</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.6376391681605083</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.04746652502415</v>
+        <v>-26.01628065965516</v>
       </c>
       <c r="F27" t="n">
-        <v>8.355950098047103</v>
+        <v>8.63732987072148</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.787435726013501</v>
+        <v>-3.720520966189439</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7090091549165251</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.94982413043056</v>
+        <v>-25.91532591244261</v>
       </c>
       <c r="F28" t="n">
-        <v>8.211934766788117</v>
+        <v>8.513398132021701</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.987918159428852</v>
+        <v>-3.962126322830652</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7046911631234622</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.79511238774988</v>
+        <v>-25.70972438861614</v>
       </c>
       <c r="F29" t="n">
-        <v>8.133040549863875</v>
+        <v>8.432880469545086</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.816697022864759</v>
+        <v>-3.782866512321739</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.6310713264185739</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.72051244615772</v>
+        <v>-25.63656460033658</v>
       </c>
       <c r="F30" t="n">
-        <v>8.205336246155886</v>
+        <v>8.516383177069615</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.938664916138279</v>
+        <v>-3.911694772284323</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.5015948975568131</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.40187197959579</v>
+        <v>-25.32193037844421</v>
       </c>
       <c r="F31" t="n">
-        <v>8.069333404236037</v>
+        <v>8.368047385872858</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.352159116788513</v>
+        <v>-4.34819214902747</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.3338261014069178</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.95762395957034</v>
+        <v>-24.8671823315397</v>
       </c>
       <c r="F32" t="n">
-        <v>8.223429808683152</v>
+        <v>8.549061564962562</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.223252303008879</v>
+        <v>-4.206703632216937</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.146043273712713</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.8228779787233</v>
+        <v>-24.73902177902205</v>
       </c>
       <c r="F33" t="n">
-        <v>8.259145610835381</v>
+        <v>8.595879639924576</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.362685328273261</v>
+        <v>-4.351583055463477</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.04614528905250727</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.44608150293842</v>
+        <v>-24.37821100500691</v>
       </c>
       <c r="F34" t="n">
-        <v>8.369016216283146</v>
+        <v>8.724524607647375</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.38338425906603</v>
+        <v>-4.362109266948226</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.2298879489138138</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.2429413320462</v>
+        <v>-24.17800350995124</v>
       </c>
       <c r="F35" t="n">
-        <v>8.276375081375093</v>
+        <v>8.624682706176372</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.518405178272751</v>
+        <v>-4.512081596000197</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.3974491393346634</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.92047791305449</v>
+        <v>-23.87940735903999</v>
       </c>
       <c r="F36" t="n">
-        <v>8.401982634838612</v>
+        <v>8.770190559959316</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.433305209801532</v>
+        <v>-4.399788914526713</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.5445982373837415</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.27655918238987</v>
+        <v>-23.22946616906819</v>
       </c>
       <c r="F37" t="n">
-        <v>8.375876582972211</v>
+        <v>8.732982235283131</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.507970612907895</v>
+        <v>-4.486905097635558</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.6741165677156273</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.84855871019101</v>
+        <v>-22.80087654324144</v>
       </c>
       <c r="F38" t="n">
-        <v>8.371739415274225</v>
+        <v>8.746284014970325</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.535150233607319</v>
+        <v>-4.516768640417535</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.7899743595027833</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.67308257520336</v>
+        <v>-22.6412813716008</v>
       </c>
       <c r="F39" t="n">
-        <v>8.503029028171055</v>
+        <v>8.876081105343196</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.789350385582272</v>
+        <v>-4.793683937822883</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.9021637181096559</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.97035322017371</v>
+        <v>-21.94081698496277</v>
       </c>
       <c r="F40" t="n">
-        <v>8.783073385955575</v>
+        <v>9.176182871081242</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.733472437053785</v>
+        <v>-4.719869534401232</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.018442957159893</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.31711276988579</v>
+        <v>-21.26429842022226</v>
       </c>
       <c r="F41" t="n">
-        <v>8.766001023049963</v>
+        <v>9.154659125209443</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.761385226712346</v>
+        <v>-4.757876489550762</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.149751159156732</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.58652299440894</v>
+        <v>-20.5440253793847</v>
       </c>
       <c r="F42" t="n">
-        <v>8.715962241588887</v>
+        <v>9.097969453904771</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.068988881978699</v>
+        <v>-5.066213313776253</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.30260446370886</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.82364760012441</v>
+        <v>-19.73269537228294</v>
       </c>
       <c r="F43" t="n">
-        <v>8.836228135492982</v>
+        <v>9.226143098725268</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.223582793933801</v>
+        <v>-5.227575946300527</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.482515440279657</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.12712399664174</v>
+        <v>-19.05668740735326</v>
       </c>
       <c r="F44" t="n">
-        <v>8.552570302124145</v>
+        <v>8.92313484175636</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.035053633012945</v>
+        <v>-5.013726271683773</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.690488624708161</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.56943117249273</v>
+        <v>-18.50200581285785</v>
       </c>
       <c r="F45" t="n">
-        <v>8.572444417837886</v>
+        <v>8.963066365423625</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.140944178396825</v>
+        <v>-5.114209695994021</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.923470029376932</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.93427119242924</v>
+        <v>-17.87754224421604</v>
       </c>
       <c r="F46" t="n">
-        <v>8.641362299996732</v>
+        <v>9.002814596851104</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.265975670535309</v>
+        <v>-5.229683807058045</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.177402299635762</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.78173277202029</v>
+        <v>-17.75217035220367</v>
       </c>
       <c r="F47" t="n">
-        <v>8.520782190824434</v>
+        <v>8.879877873167297</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.571026326747527</v>
+        <v>-5.544854813366917</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.441999320233033</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.13996117902172</v>
+        <v>-17.08832513661395</v>
       </c>
       <c r="F48" t="n">
-        <v>8.424134811246812</v>
+        <v>8.775008527405072</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.664230430677775</v>
+        <v>-5.640716654774034</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.712509886497008</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.27644525279283</v>
+        <v>-16.20424120262071</v>
       </c>
       <c r="F49" t="n">
-        <v>8.363281787638471</v>
+        <v>8.706745260388312</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.823131710267804</v>
+        <v>-5.793412182817086</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.97809414689968</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.74614152618872</v>
+        <v>-15.67104407708858</v>
       </c>
       <c r="F50" t="n">
-        <v>8.095701302159272</v>
+        <v>8.438248313710194</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.086182258963764</v>
+        <v>-6.064147913281139</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.237183659164381</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.01868081109105</v>
+        <v>-14.93371176564825</v>
       </c>
       <c r="F51" t="n">
-        <v>7.911466416570503</v>
+        <v>8.23251586685531</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.011948901851177</v>
+        <v>-5.985109681025639</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.483816524424086</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.35191601196763</v>
+        <v>-14.25524244778432</v>
       </c>
       <c r="F52" t="n">
-        <v>7.766272778055761</v>
+        <v>8.074334663921576</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.132123149635381</v>
+        <v>-6.097886777704267</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.720449089290641</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.85828382562319</v>
+        <v>-13.76365266068319</v>
       </c>
       <c r="F53" t="n">
-        <v>7.80850854702317</v>
+        <v>8.125970706329344</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.214696303658148</v>
+        <v>-6.164801537528329</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.947601670515122</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.46942933892108</v>
+        <v>-13.38230006350939</v>
       </c>
       <c r="F54" t="n">
-        <v>7.601178839221595</v>
+        <v>7.910419032343166</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.433115191966663</v>
+        <v>-6.381806457129938</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.170056176706552</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.88527697072895</v>
+        <v>-12.80208847847262</v>
       </c>
       <c r="F55" t="n">
-        <v>7.545562736749943</v>
+        <v>7.836892659584032</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.722965684579637</v>
+        <v>-6.705487460285933</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.393457281827375</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.56782790372561</v>
+        <v>-12.47976907481216</v>
       </c>
       <c r="F56" t="n">
-        <v>7.637208856642026</v>
+        <v>7.940138559793883</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.6635266296782</v>
+        <v>-6.623372536862626</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.621434042145951</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.11061850388686</v>
+        <v>-12.02231092121941</v>
       </c>
       <c r="F57" t="n">
-        <v>7.273557052910243</v>
+        <v>7.553051533975411</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.905092709410888</v>
+        <v>-6.856899942650495</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.862573130037113</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.63967527836713</v>
+        <v>-11.54639262061983</v>
       </c>
       <c r="F58" t="n">
-        <v>7.391780547571029</v>
+        <v>7.690834929081736</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.691913925592941</v>
+        <v>-7.688732496002402</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.115687782310053</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.62396451495706</v>
+        <v>-11.57501239463184</v>
       </c>
       <c r="F59" t="n">
-        <v>7.262428595494775</v>
+        <v>7.554386948865266</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.736100447683767</v>
+        <v>-7.697897107991611</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.388266409986765</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.46603206577731</v>
+        <v>-11.4202482827398</v>
       </c>
       <c r="F60" t="n">
-        <v>7.115428219187875</v>
+        <v>7.396938914890669</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.961602271829657</v>
+        <v>-7.932995590120485</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.672564049338349</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.46550837366365</v>
+        <v>-11.43351078551847</v>
       </c>
       <c r="F61" t="n">
-        <v>6.926925242872703</v>
+        <v>7.20238729466262</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.414334104096545</v>
+        <v>-8.396528572231796</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.971394236678059</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.618675224609</v>
+        <v>-11.61366087262062</v>
       </c>
       <c r="F62" t="n">
-        <v>6.987621158846945</v>
+        <v>7.294373814428587</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.633145761490312</v>
+        <v>-8.628537270890025</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.27478908596435</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.23120852200812</v>
+        <v>-11.20683065411682</v>
       </c>
       <c r="F63" t="n">
-        <v>7.304402518405349</v>
+        <v>7.635428303455551</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.722867312864661</v>
+        <v>-8.714750085102791</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.581469055299976</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.9638113287687</v>
+        <v>-10.90307613588594</v>
       </c>
       <c r="F64" t="n">
-        <v>7.167640322920678</v>
+        <v>7.501336937750593</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.964079900420622</v>
+        <v>-8.966148484269615</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.884334889630886</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.98365925987676</v>
+        <v>-10.92157555980129</v>
       </c>
       <c r="F65" t="n">
-        <v>7.149415837364995</v>
+        <v>7.488087527274765</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.026530184975655</v>
+        <v>-9.029384306995151</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.179350094669974</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.71931257319947</v>
+        <v>-10.6395935411962</v>
       </c>
       <c r="F66" t="n">
-        <v>6.982227130076154</v>
+        <v>7.296573321305996</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.434028110924379</v>
+        <v>-9.457947748216212</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.464316815920378</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.94753759633644</v>
+        <v>-10.86948128679407</v>
       </c>
       <c r="F67" t="n">
-        <v>6.745308817852279</v>
+        <v>7.06274479255277</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.477311264119125</v>
+        <v>-9.503430408288368</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.733159239631485</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.08824057497647</v>
+        <v>-11.04559894462097</v>
       </c>
       <c r="F68" t="n">
-        <v>6.687650316137318</v>
+        <v>7.009013981690326</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.255147977197876</v>
+        <v>-9.298588238026722</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.990369260385298</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.90857490307946</v>
+        <v>-10.85510593827385</v>
       </c>
       <c r="F69" t="n">
-        <v>6.64633100836883</v>
+        <v>6.957011354802989</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.257242745652551</v>
+        <v>-9.28211812105183</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.229240525409629</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.20207814818528</v>
+        <v>-11.15621581133071</v>
       </c>
       <c r="F70" t="n">
-        <v>6.4890924512397</v>
+        <v>6.809146886508535</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.413041149469093</v>
+        <v>-9.466366098943443</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.460177147910384</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.12653556078852</v>
+        <v>-11.08575303743654</v>
       </c>
       <c r="F71" t="n">
-        <v>6.08723730781576</v>
+        <v>6.375215601122367</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.349150711601469</v>
+        <v>-9.400629646375135</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.676401802565733</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.1784596338588</v>
+        <v>-11.12267333145021</v>
       </c>
       <c r="F72" t="n">
-        <v>6.367648250079849</v>
+        <v>6.682256287366526</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.677544943780484</v>
+        <v>-9.745729656980194</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.889644109894419</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.59474249501432</v>
+        <v>-11.55936709273598</v>
       </c>
       <c r="F73" t="n">
-        <v>6.518209732759699</v>
+        <v>6.845857703676735</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.350355203462907</v>
+        <v>-9.399032385428445</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.095511191603562</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.76059578741331</v>
+        <v>-11.71674966519637</v>
       </c>
       <c r="F74" t="n">
-        <v>6.430936442016753</v>
+        <v>6.740935988703143</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.444973276100061</v>
+        <v>-9.500811947720024</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.300283408632289</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.28197056347937</v>
+        <v>-12.25315440492473</v>
       </c>
       <c r="F75" t="n">
-        <v>6.390900179926755</v>
+        <v>6.720328704030265</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.617215612285809</v>
+        <v>-9.707683424922138</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.501929878780043</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.16876142080696</v>
+        <v>-12.10637659776614</v>
       </c>
       <c r="F76" t="n">
-        <v>6.285245295994025</v>
+        <v>6.613993020349766</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.668629085545268</v>
+        <v>-9.781118151561378</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.696929807353925</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.85678811974535</v>
+        <v>-12.82954303753172</v>
       </c>
       <c r="F77" t="n">
-        <v>6.249791339898631</v>
+        <v>6.559764701979337</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.382431345425136</v>
+        <v>-9.493087489043406</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.883731009338289</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.5475642022805</v>
+        <v>-13.51966450492478</v>
       </c>
       <c r="F78" t="n">
-        <v>6.272650500660284</v>
+        <v>6.593595212522358</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.771871802401241</v>
+        <v>-8.836809624496203</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.0510910324241</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.78458725292711</v>
+        <v>-13.72853910446168</v>
       </c>
       <c r="F79" t="n">
-        <v>6.452643480128335</v>
+        <v>6.782333850288681</v>
       </c>
       <c r="G79" t="n">
-        <v>-8.972328051210908</v>
+        <v>-9.079881319055689</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.19788460962632</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.3840707077469</v>
+        <v>-14.33391409556025</v>
       </c>
       <c r="F80" t="n">
-        <v>6.452879141579485</v>
+        <v>6.766413610033141</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.383842130778165</v>
+        <v>-8.460327363979527</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.30547071266115</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.93042559763498</v>
+        <v>-14.89211751952008</v>
       </c>
       <c r="F81" t="n">
-        <v>6.543634984878331</v>
+        <v>6.883354059015439</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.195561723611302</v>
+        <v>-8.281748353218385</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.37065704651066</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.78100632865623</v>
+        <v>-15.73672816044552</v>
       </c>
       <c r="F82" t="n">
-        <v>6.621062863884299</v>
+        <v>6.96900390420601</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.114729845866485</v>
+        <v>-8.196072323422129</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.37290815051519</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.74567338664029</v>
+        <v>-16.71095259950404</v>
       </c>
       <c r="F83" t="n">
-        <v>6.7462252790512</v>
+        <v>7.104535423223559</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.9711858375098</v>
+        <v>-8.071093200495012</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.30787544986979</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.59490561046886</v>
+        <v>-17.5453119673044</v>
       </c>
       <c r="F84" t="n">
-        <v>6.717029443714151</v>
+        <v>7.074082726813704</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.688077880860315</v>
+        <v>-7.780444077408693</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.16092033105282</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.43842959025843</v>
+        <v>-18.39169006911346</v>
       </c>
       <c r="F85" t="n">
-        <v>6.879112152894719</v>
+        <v>7.231007068674633</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.432594683206873</v>
+        <v>-7.510690269657769</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.926880912450786</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.72626705158765</v>
+        <v>-19.68802443498697</v>
       </c>
       <c r="F86" t="n">
-        <v>6.791498462277889</v>
+        <v>7.125090338685069</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.464526809837843</v>
+        <v>-7.571621847083162</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-9.603404322695921</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.73593235443872</v>
+        <v>-20.69405007764804</v>
       </c>
       <c r="F87" t="n">
-        <v>6.826062141780046</v>
+        <v>7.192306221474491</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.923042256606895</v>
+        <v>-6.99446076860851</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-9.191022082430068</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.05115891331284</v>
+        <v>-21.97870610938673</v>
       </c>
       <c r="F88" t="n">
-        <v>7.161696417430535</v>
+        <v>7.546322090314764</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.016665314228078</v>
+        <v>-7.079678567805305</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.702697030950162</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.75167885251611</v>
+        <v>-23.69974168714299</v>
       </c>
       <c r="F89" t="n">
-        <v>6.985735867237737</v>
+        <v>7.358787944409879</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.731724435180752</v>
+        <v>-6.780846755442908</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.145904068398755</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.99471445352096</v>
+        <v>-24.8958282901574</v>
       </c>
       <c r="F90" t="n">
-        <v>7.314562145410529</v>
+        <v>7.715396089212814</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.067843126036385</v>
+        <v>-7.146606419932209</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.545511742016927</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.71328867834297</v>
+        <v>-26.62784830999787</v>
       </c>
       <c r="F91" t="n">
-        <v>7.398457622020309</v>
+        <v>7.792274091499429</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.673214933781078</v>
+        <v>-6.726605344769637</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.913119253635735</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.72332374902749</v>
+        <v>-28.6399912414399</v>
       </c>
       <c r="F92" t="n">
-        <v>7.111133943855789</v>
+        <v>7.478137377115054</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.858379372871609</v>
+        <v>-6.932586545378513</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.274801466139088</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.54176605992619</v>
+        <v>-30.46060687461033</v>
       </c>
       <c r="F93" t="n">
-        <v>7.157349772887081</v>
+        <v>7.54333704526685</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.159656262511531</v>
+        <v>-6.178522270906458</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.641213165988145</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.48135144901938</v>
+        <v>-32.39941981783586</v>
       </c>
       <c r="F94" t="n">
-        <v>7.150698883043485</v>
+        <v>7.515817024693542</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.504062381065977</v>
+        <v>-6.555554408142486</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.027589972297291</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.83096157850975</v>
+        <v>-34.78363290373691</v>
       </c>
       <c r="F95" t="n">
-        <v>7.108227452624925</v>
+        <v>7.494502755667211</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.873550168511291</v>
+        <v>-5.874309522076111</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.436039604617288</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.26094535514547</v>
+        <v>-37.22558304516998</v>
       </c>
       <c r="F96" t="n">
-        <v>6.824674357678822</v>
+        <v>7.204351140088878</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.785164032026798</v>
+        <v>-5.77342023637777</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.869308139295083</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.21278513969852</v>
+        <v>-39.17184550871244</v>
       </c>
       <c r="F97" t="n">
-        <v>6.774635576217745</v>
+        <v>7.16423632418183</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.411404970501203</v>
+        <v>-5.366498371754083</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.32001759533249</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.63410181185302</v>
+        <v>-41.58996765897356</v>
       </c>
       <c r="F98" t="n">
-        <v>6.701685264783648</v>
+        <v>7.081545339433488</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.551112934125261</v>
+        <v>-5.505577904841738</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.789747786738853</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.05389977687788</v>
+        <v>-44.04736671775986</v>
       </c>
       <c r="F99" t="n">
-        <v>6.532166127588979</v>
+        <v>6.905113466338388</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.315621682911135</v>
+        <v>-5.260201964982108</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.265044287344439</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.15979668896953</v>
+        <v>-46.14505475596974</v>
       </c>
       <c r="F100" t="n">
-        <v>6.31713814571647</v>
+        <v>6.669059246102067</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.342238334588364</v>
+        <v>-5.288245677669085</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.764825817578373</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.54336825203133</v>
+        <v>-48.53311697890626</v>
       </c>
       <c r="F101" t="n">
-        <v>6.274561976875177</v>
+        <v>6.64944697644516</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.357045729102356</v>
+        <v>-5.28327060258923</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.258491830033778</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.04043698842806</v>
+        <v>-51.06566585600407</v>
       </c>
       <c r="F102" t="n">
-        <v>5.540974064047582</v>
+        <v>5.865794097550805</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.089007013023698</v>
+        <v>-4.997413262342983</v>
       </c>
     </row>
   </sheetData>
